--- a/Workbooks/Option.xlsx
+++ b/Workbooks/Option.xlsx
@@ -1513,11 +1513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215826856"/>
-        <c:axId val="215827248"/>
+        <c:axId val="324926840"/>
+        <c:axId val="324927224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215826856"/>
+        <c:axId val="324926840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215827248"/>
+        <c:crossAx val="324927224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1568,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215827248"/>
+        <c:axId val="324927224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1605,7 +1605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215826856"/>
+        <c:crossAx val="324926840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2322,11 +2322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215828032"/>
-        <c:axId val="215828424"/>
+        <c:axId val="324873560"/>
+        <c:axId val="324873944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215828032"/>
+        <c:axId val="324873560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215828424"/>
+        <c:crossAx val="324873944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2377,7 +2377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215828424"/>
+        <c:axId val="324873944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215828032"/>
+        <c:crossAx val="324873560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3131,11 +3131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218781744"/>
-        <c:axId val="218782136"/>
+        <c:axId val="325836264"/>
+        <c:axId val="325362704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218781744"/>
+        <c:axId val="325836264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,7 +3178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218782136"/>
+        <c:crossAx val="325362704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3186,7 +3186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218782136"/>
+        <c:axId val="325362704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218781744"/>
+        <c:crossAx val="325836264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3940,11 +3940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218784488"/>
-        <c:axId val="218784880"/>
+        <c:axId val="325022656"/>
+        <c:axId val="315074304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218784488"/>
+        <c:axId val="325022656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +3987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218784880"/>
+        <c:crossAx val="315074304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3995,7 +3995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218784880"/>
+        <c:axId val="315074304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,7 +4032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218784488"/>
+        <c:crossAx val="325022656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4749,11 +4749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218785664"/>
-        <c:axId val="218786056"/>
+        <c:axId val="325468056"/>
+        <c:axId val="325468448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218785664"/>
+        <c:axId val="325468056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218786056"/>
+        <c:crossAx val="325468448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4804,7 +4804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218786056"/>
+        <c:axId val="325468448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4841,7 +4841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218785664"/>
+        <c:crossAx val="325468056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5558,11 +5558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218787232"/>
-        <c:axId val="218787624"/>
+        <c:axId val="325469232"/>
+        <c:axId val="325469624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218787232"/>
+        <c:axId val="325469232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218787624"/>
+        <c:crossAx val="325469624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5613,7 +5613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218787624"/>
+        <c:axId val="325469624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218787232"/>
+        <c:crossAx val="325469232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5914,11 +5914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218784096"/>
-        <c:axId val="218783704"/>
+        <c:axId val="325726032"/>
+        <c:axId val="325726424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218784096"/>
+        <c:axId val="325726032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5961,7 +5961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218783704"/>
+        <c:crossAx val="325726424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5969,7 +5969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218783704"/>
+        <c:axId val="325726424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -6021,7 +6021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218784096"/>
+        <c:crossAx val="325726032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6999,12 +6999,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="218782920"/>
-        <c:axId val="218788408"/>
-        <c:axId val="218570336"/>
+        <c:axId val="325727208"/>
+        <c:axId val="325727600"/>
+        <c:axId val="325603136"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="218782920"/>
+        <c:axId val="325727208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7047,7 +7047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218788408"/>
+        <c:crossAx val="325727600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7055,7 +7055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218788408"/>
+        <c:axId val="325727600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -7107,12 +7107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218782920"/>
+        <c:crossAx val="325727208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="218570336"/>
+        <c:axId val="325603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7154,7 +7154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218788408"/>
+        <c:crossAx val="325727600"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -7439,7 +7439,7 @@
                   <c:v>0.4428447354894367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.41490764137412295</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.35971624360184862</c:v>
@@ -7519,7 +7519,7 @@
                   <c:v>0.39624047768651571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.37039609693954034</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3240301776417806</c:v>
@@ -7599,7 +7599,7 @@
                   <c:v>0.36830401701326676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.34152089202476937</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.30125605494708207</c:v>
@@ -7679,7 +7679,7 @@
                   <c:v>0.35698280537310756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32726460943897578</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.29047180362071395</c:v>
@@ -7759,7 +7759,7 @@
                   <c:v>0.35791201356686297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32477806193013609</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.28918808567986465</c:v>
@@ -7839,7 +7839,7 @@
                   <c:v>0.36584101764312149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32975475505182028</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.29389513647158388</c:v>
@@ -7919,7 +7919,7 @@
                   <c:v>0.37694220482485086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.33853058306795969</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3016732190232343</c:v>
@@ -8027,12 +8027,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="218786840"/>
-        <c:axId val="219520592"/>
-        <c:axId val="219504632"/>
+        <c:axId val="325467272"/>
+        <c:axId val="325466880"/>
+        <c:axId val="325938848"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="218786840"/>
+        <c:axId val="325467272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8075,7 +8075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219520592"/>
+        <c:crossAx val="325466880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8083,7 +8083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219520592"/>
+        <c:axId val="325466880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -8135,12 +8135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218786840"/>
+        <c:crossAx val="325467272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="219504632"/>
+        <c:axId val="325938848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8182,7 +8182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219520592"/>
+        <c:crossAx val="325466880"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -12733,11 +12733,11 @@
       </c>
       <c r="B7" s="12" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B8,B9,B2,B3,D1,B4,D4,D3)</f>
-        <v>OPTION@bsm_call#20:00:03</v>
+        <v>OPTION@bsm_call#21:05:09</v>
       </c>
       <c r="C7" s="13" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C8,C9,B2,B3,D1,B4,D4,D3)</f>
-        <v>OPTION@bsm_put#20:00:03</v>
+        <v>OPTION@bsm_put#21:05:09</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13053,15 +13053,15 @@
       </c>
       <c r="B20" s="33" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A20,$B$9,$B$2,$A20,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_50#20:00:22</v>
+        <v>OPTION@42150_50#21:05:22</v>
       </c>
       <c r="C20" s="34" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A20,$B$9,$B$2,$A20,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_50#20:00:22</v>
+        <v>OPTION@42250_50#21:05:22</v>
       </c>
       <c r="D20" s="35" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A20,$B$9,$B$2,$A20,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_50#20:00:22</v>
+        <v>OPTION@42350_50#21:05:22</v>
       </c>
       <c r="E20" s="42">
         <f>_xll.cegGetOptionBSMGreek(B20,$E$18)</f>
@@ -13142,15 +13142,15 @@
       </c>
       <c r="B21" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A21,$B$9,$B$2,$A21,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_55#20:00:22</v>
+        <v>OPTION@42150_55#21:05:22</v>
       </c>
       <c r="C21" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A21,$B$9,$B$2,$A21,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_55#20:00:22</v>
+        <v>OPTION@42250_55#21:05:22</v>
       </c>
       <c r="D21" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A21,$B$9,$B$2,$A21,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_55#20:00:18</v>
+        <v>OPTION@42350_55#21:05:22</v>
       </c>
       <c r="E21" s="45">
         <f>_xll.cegGetOptionBSMGreek(B21,$E$18)</f>
@@ -13231,15 +13231,15 @@
       </c>
       <c r="B22" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A22,$B$9,$B$2,$A22,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_60#20:00:22</v>
+        <v>OPTION@42150_60#21:05:22</v>
       </c>
       <c r="C22" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A22,$B$9,$B$2,$A22,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_60#20:00:22</v>
+        <v>OPTION@42250_60#21:05:22</v>
       </c>
       <c r="D22" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A22,$B$9,$B$2,$A22,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_60#20:00:22</v>
+        <v>OPTION@42350_60#21:05:22</v>
       </c>
       <c r="E22" s="45">
         <f>_xll.cegGetOptionBSMGreek(B22,$E$18)</f>
@@ -13320,15 +13320,15 @@
       </c>
       <c r="B23" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A23,$B$9,$B$2,$A23,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_65#20:00:22</v>
+        <v>OPTION@42150_65#21:05:22</v>
       </c>
       <c r="C23" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A23,$B$9,$B$2,$A23,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_65#20:00:22</v>
+        <v>OPTION@42250_65#21:05:22</v>
       </c>
       <c r="D23" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A23,$B$9,$B$2,$A23,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_65#20:00:18</v>
+        <v>OPTION@42350_65#21:05:22</v>
       </c>
       <c r="E23" s="45">
         <f>_xll.cegGetOptionBSMGreek(B23,$E$18)</f>
@@ -13409,15 +13409,15 @@
       </c>
       <c r="B24" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A24,$B$9,$B$2,$A24,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_70#20:00:22</v>
+        <v>OPTION@42150_70#21:05:22</v>
       </c>
       <c r="C24" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A24,$B$9,$B$2,$A24,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_70#20:00:22</v>
+        <v>OPTION@42250_70#21:05:22</v>
       </c>
       <c r="D24" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A24,$B$9,$B$2,$A24,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_70#20:00:22</v>
+        <v>OPTION@42350_70#21:05:22</v>
       </c>
       <c r="E24" s="45">
         <f>_xll.cegGetOptionBSMGreek(B24,$E$18)</f>
@@ -13498,15 +13498,15 @@
       </c>
       <c r="B25" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A25,$B$9,$B$2,$A25,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_75#20:00:22</v>
+        <v>OPTION@42150_75#21:05:22</v>
       </c>
       <c r="C25" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A25,$B$9,$B$2,$A25,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_75#20:00:22</v>
+        <v>OPTION@42250_75#21:05:22</v>
       </c>
       <c r="D25" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A25,$B$9,$B$2,$A25,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_75#20:00:17</v>
+        <v>OPTION@42350_75#21:05:19</v>
       </c>
       <c r="E25" s="45">
         <f>_xll.cegGetOptionBSMGreek(B25,$E$18)</f>
@@ -13587,15 +13587,15 @@
       </c>
       <c r="B26" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A26,$B$9,$B$2,$A26,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_80#20:00:22</v>
+        <v>OPTION@42150_80#21:05:22</v>
       </c>
       <c r="C26" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A26,$B$9,$B$2,$A26,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_80#20:00:22</v>
+        <v>OPTION@42250_80#21:05:22</v>
       </c>
       <c r="D26" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A26,$B$9,$B$2,$A26,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_80#20:00:17</v>
+        <v>OPTION@42350_80#21:05:22</v>
       </c>
       <c r="E26" s="45">
         <f>_xll.cegGetOptionBSMGreek(B26,$E$18)</f>
@@ -13676,15 +13676,15 @@
       </c>
       <c r="B27" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A27,$B$9,$B$2,$A27,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_85#20:00:18</v>
+        <v>OPTION@42150_85#21:05:20</v>
       </c>
       <c r="C27" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A27,$B$9,$B$2,$A27,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_85#20:00:22</v>
+        <v>OPTION@42250_85#21:05:22</v>
       </c>
       <c r="D27" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A27,$B$9,$B$2,$A27,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_85#20:00:22</v>
+        <v>OPTION@42350_85#21:05:22</v>
       </c>
       <c r="E27" s="45">
         <f>_xll.cegGetOptionBSMGreek(B27,$E$18)</f>
@@ -13765,15 +13765,15 @@
       </c>
       <c r="B28" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A28,$B$9,$B$2,$A28,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_90#20:00:22</v>
+        <v>OPTION@42150_90#21:05:22</v>
       </c>
       <c r="C28" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A28,$B$9,$B$2,$A28,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_90#20:00:22</v>
+        <v>OPTION@42250_90#21:05:22</v>
       </c>
       <c r="D28" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A28,$B$9,$B$2,$A28,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_90#20:00:17</v>
+        <v>OPTION@42350_90#21:05:19</v>
       </c>
       <c r="E28" s="45">
         <f>_xll.cegGetOptionBSMGreek(B28,$E$18)</f>
@@ -13854,15 +13854,15 @@
       </c>
       <c r="B29" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A29,$B$9,$B$2,$A29,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_95#20:00:22</v>
+        <v>OPTION@42150_95#21:05:22</v>
       </c>
       <c r="C29" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A29,$B$9,$B$2,$A29,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_95#20:00:22</v>
+        <v>OPTION@42250_95#21:05:22</v>
       </c>
       <c r="D29" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A29,$B$9,$B$2,$A29,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_95#20:00:17</v>
+        <v>OPTION@42350_95#21:05:19</v>
       </c>
       <c r="E29" s="45">
         <f>_xll.cegGetOptionBSMGreek(B29,$E$18)</f>
@@ -13943,15 +13943,15 @@
       </c>
       <c r="B30" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A30,$B$9,$B$2,$A30,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_100#20:00:17</v>
+        <v>OPTION@42150_100#21:05:15</v>
       </c>
       <c r="C30" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A30,$B$9,$B$2,$A30,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_100#20:00:22</v>
+        <v>OPTION@42250_100#21:05:22</v>
       </c>
       <c r="D30" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A30,$B$9,$B$2,$A30,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_100#20:00:22</v>
+        <v>OPTION@42350_100#21:05:22</v>
       </c>
       <c r="E30" s="45">
         <f>_xll.cegGetOptionBSMGreek(B30,$E$18)</f>
@@ -14032,15 +14032,15 @@
       </c>
       <c r="B31" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A31,$B$9,$B$2,$A31,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_105#20:00:22</v>
+        <v>OPTION@42150_105#21:05:22</v>
       </c>
       <c r="C31" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A31,$B$9,$B$2,$A31,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_105#20:00:22</v>
+        <v>OPTION@42250_105#21:05:18</v>
       </c>
       <c r="D31" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A31,$B$9,$B$2,$A31,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_105#20:00:22</v>
+        <v>OPTION@42350_105#21:05:19</v>
       </c>
       <c r="E31" s="45">
         <f>_xll.cegGetOptionBSMGreek(B31,$E$18)</f>
@@ -14121,15 +14121,15 @@
       </c>
       <c r="B32" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A32,$B$9,$B$2,$A32,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_110#20:00:22</v>
+        <v>OPTION@42150_110#21:05:22</v>
       </c>
       <c r="C32" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A32,$B$9,$B$2,$A32,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_110#20:00:22</v>
+        <v>OPTION@42250_110#21:05:22</v>
       </c>
       <c r="D32" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A32,$B$9,$B$2,$A32,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_110#20:00:22</v>
+        <v>OPTION@42350_110#21:05:22</v>
       </c>
       <c r="E32" s="45">
         <f>_xll.cegGetOptionBSMGreek(B32,$E$18)</f>
@@ -14210,15 +14210,15 @@
       </c>
       <c r="B33" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A33,$B$9,$B$2,$A33,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_115#20:00:22</v>
+        <v>OPTION@42150_115#21:05:22</v>
       </c>
       <c r="C33" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A33,$B$9,$B$2,$A33,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_115#20:00:22</v>
+        <v>OPTION@42250_115#21:05:22</v>
       </c>
       <c r="D33" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A33,$B$9,$B$2,$A33,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_115#20:00:22</v>
+        <v>OPTION@42350_115#21:05:22</v>
       </c>
       <c r="E33" s="45">
         <f>_xll.cegGetOptionBSMGreek(B33,$E$18)</f>
@@ -14299,15 +14299,15 @@
       </c>
       <c r="B34" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A34,$B$9,$B$2,$A34,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_120#20:00:17</v>
+        <v>OPTION@42150_120#21:05:18</v>
       </c>
       <c r="C34" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A34,$B$9,$B$2,$A34,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_120#20:00:22</v>
+        <v>OPTION@42250_120#21:05:22</v>
       </c>
       <c r="D34" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A34,$B$9,$B$2,$A34,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_120#20:00:22</v>
+        <v>OPTION@42350_120#21:05:22</v>
       </c>
       <c r="E34" s="45">
         <f>_xll.cegGetOptionBSMGreek(B34,$E$18)</f>
@@ -14388,15 +14388,15 @@
       </c>
       <c r="B35" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A35,$B$9,$B$2,$A35,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_125#20:00:22</v>
+        <v>OPTION@42150_125#21:05:22</v>
       </c>
       <c r="C35" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A35,$B$9,$B$2,$A35,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_125#20:00:22</v>
+        <v>OPTION@42250_125#21:05:22</v>
       </c>
       <c r="D35" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A35,$B$9,$B$2,$A35,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_125#20:00:18</v>
+        <v>OPTION@42350_125#21:05:15</v>
       </c>
       <c r="E35" s="45">
         <f>_xll.cegGetOptionBSMGreek(B35,$E$18)</f>
@@ -14477,15 +14477,15 @@
       </c>
       <c r="B36" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A36,$B$9,$B$2,$A36,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_130#20:00:22</v>
+        <v>OPTION@42150_130#21:05:15</v>
       </c>
       <c r="C36" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A36,$B$9,$B$2,$A36,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_130#20:00:22</v>
+        <v>OPTION@42250_130#21:05:22</v>
       </c>
       <c r="D36" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A36,$B$9,$B$2,$A36,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_130#20:00:22</v>
+        <v>OPTION@42350_130#21:05:22</v>
       </c>
       <c r="E36" s="45">
         <f>_xll.cegGetOptionBSMGreek(B36,$E$18)</f>
@@ -14566,15 +14566,15 @@
       </c>
       <c r="B37" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A37,$B$9,$B$2,$A37,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_135#20:00:22</v>
+        <v>OPTION@42150_135#21:05:18</v>
       </c>
       <c r="C37" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A37,$B$9,$B$2,$A37,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_135#20:00:22</v>
+        <v>OPTION@42250_135#21:05:22</v>
       </c>
       <c r="D37" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A37,$B$9,$B$2,$A37,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_135#20:00:22</v>
+        <v>OPTION@42350_135#21:05:22</v>
       </c>
       <c r="E37" s="45">
         <f>_xll.cegGetOptionBSMGreek(B37,$E$18)</f>
@@ -14655,15 +14655,15 @@
       </c>
       <c r="B38" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A38,$B$9,$B$2,$A38,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_140#20:00:17</v>
+        <v>OPTION@42150_140#21:05:16</v>
       </c>
       <c r="C38" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A38,$B$9,$B$2,$A38,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_140#20:00:22</v>
+        <v>OPTION@42250_140#21:05:22</v>
       </c>
       <c r="D38" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A38,$B$9,$B$2,$A38,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_140#20:00:22</v>
+        <v>OPTION@42350_140#21:05:22</v>
       </c>
       <c r="E38" s="45">
         <f>_xll.cegGetOptionBSMGreek(B38,$E$18)</f>
@@ -14744,15 +14744,15 @@
       </c>
       <c r="B39" s="36" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A39,$B$9,$B$2,$A39,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_145#20:00:17</v>
+        <v>OPTION@42150_145#21:05:15</v>
       </c>
       <c r="C39" s="37" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A39,$B$9,$B$2,$A39,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_145#20:00:22</v>
+        <v>OPTION@42250_145#21:05:16</v>
       </c>
       <c r="D39" s="38" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A39,$B$9,$B$2,$A39,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_145#20:00:22</v>
+        <v>OPTION@42350_145#21:05:22</v>
       </c>
       <c r="E39" s="45">
         <f>_xll.cegGetOptionBSMGreek(B39,$E$18)</f>
@@ -14833,15 +14833,15 @@
       </c>
       <c r="B40" s="39" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(B$19&amp;"_"&amp;$A40,$B$9,$B$2,$A40,B$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42150_150#20:00:22</v>
+        <v>OPTION@42150_150#21:05:22</v>
       </c>
       <c r="C40" s="40" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(C$19&amp;"_"&amp;$A40,$B$9,$B$2,$A40,C$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42250_150#20:00:22</v>
+        <v>OPTION@42250_150#21:05:22</v>
       </c>
       <c r="D40" s="41" t="str">
         <f>_xll.cegEuropeanOptionBlackScholes(D$19&amp;"_"&amp;$A40,$B$9,$B$2,$A40,D$19,$B$4,$D$4,$D$3)</f>
-        <v>OPTION@42350_150#20:00:17</v>
+        <v>OPTION@42350_150#21:05:16</v>
       </c>
       <c r="E40" s="48">
         <f>_xll.cegGetOptionBSMGreek(B40,$E$18)</f>
@@ -15506,7 +15506,7 @@
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="66" t="str">
         <f>_xll.cegSABRModel("First",J4,K3,B3:H3,B4:H4,B8:B11,C8:C11)</f>
-        <v>MODEL@First#20:00:15</v>
+        <v>MODEL@First#21:05:19</v>
       </c>
       <c r="H2" s="66"/>
       <c r="I2" s="73" t="s">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="AJ4" s="132" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M4,P4,O4,R4:X4,Y4:AE4,AF4:AI4,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT3Mx10Y#20:00:17</v>
+        <v>MODEL@SWPT3Mx10Y#21:05:18</v>
       </c>
       <c r="AK4" s="14" t="str">
         <f t="array" ref="AK4:AL9">_xll.cegGetSABRCalibratedParameters(AJ4)</f>
@@ -15864,7 +15864,7 @@
       </c>
       <c r="AJ5" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M5,P5,O5,R5:X5,Y5:AE5,AF5:AI5,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT1Yx10Y#20:00:05</v>
+        <v>MODEL@SWPT1Yx10Y#21:05:14</v>
       </c>
       <c r="AK5" s="16" t="str">
         <v>beta:</v>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="AJ6" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M6,P6,O6,R6:X6,Y6:AE6,AF6:AI6,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT2Yx10Y#20:00:18</v>
+        <v>MODEL@SWPT2Yx10Y#21:05:20</v>
       </c>
       <c r="AK6" s="16" t="str">
         <v>nu:</v>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="AJ7" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M7,P7,O7,R7:X7,Y7:AE7,AF7:AI7,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT3Yx10Y#20:00:04</v>
+        <v>MODEL@SWPT3Yx10Y#21:05:16</v>
       </c>
       <c r="AK7" s="16" t="str">
         <v>rho:</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="AJ8" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M8,P8,O8,R8:X8,Y8:AE8,AF8:AI8,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT4Yx10Y#20:00:16</v>
+        <v>MODEL@SWPT4Yx10Y#21:05:19</v>
       </c>
       <c r="AK8" s="16" t="str">
         <v>rmsError:</v>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="AJ9" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M9,P9,O9,R9:X9,Y9:AE9,AF9:AI9,$AF$12:$AI$12)</f>
-        <v/>
+        <v>MODEL@SWPT5Yx10Y#21:05:15</v>
       </c>
       <c r="AK9" s="107" t="str">
         <v>maxError:</v>
@@ -16428,7 +16428,7 @@
       </c>
       <c r="AJ10" s="133" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M10,P10,O10,R10:X10,Y10:AE10,AF10:AI10,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT7Yx10Y#20:00:06</v>
+        <v>MODEL@SWPT7Yx10Y#21:05:16</v>
       </c>
       <c r="AK10" s="14" t="str">
         <f t="array" ref="AK10:AL15">_xll.cegGetSABRCalibratedParameters(AJ8)</f>
@@ -16437,12 +16437,12 @@
       <c r="AL10" s="119">
         <v>5.8457578726126433E-2</v>
       </c>
-      <c r="AM10" s="14" t="e">
+      <c r="AM10" s="14" t="str">
         <f t="array" ref="AM10:AN15">_xll.cegGetSABRCalibratedParameters(AJ9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN10" s="119" t="e">
-        <v>#VALUE!</v>
+        <v>alpha:</v>
+      </c>
+      <c r="AN10" s="119">
+        <v>5.4056346152366028E-2</v>
       </c>
       <c r="AO10" s="14" t="str">
         <f t="array" ref="AO10:AP15">_xll.cegGetSABRCalibratedParameters(AJ10)</f>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="AJ11" s="134" t="str">
         <f>_xll.cegSABRModel("SWPT"&amp;M11,P11,O11,R11:X11,Y11:AE11,AF11:AI11,$AF$12:$AI$12)</f>
-        <v>MODEL@SWPT10Yx10Y#20:00:14</v>
+        <v>MODEL@SWPT10Yx10Y#21:05:17</v>
       </c>
       <c r="AK11" s="16" t="str">
         <v>beta:</v>
@@ -16556,11 +16556,11 @@
       <c r="AL11" s="120">
         <v>0.50000000000000011</v>
       </c>
-      <c r="AM11" s="16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN11" s="120" t="e">
-        <v>#VALUE!</v>
+      <c r="AM11" s="16" t="str">
+        <v>beta:</v>
+      </c>
+      <c r="AN11" s="120">
+        <v>0.50000000000000011</v>
       </c>
       <c r="AO11" s="16" t="str">
         <v>beta:</v>
@@ -16600,11 +16600,11 @@
       <c r="AL12" s="120">
         <v>0.71454716771070492</v>
       </c>
-      <c r="AM12" s="16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN12" s="120" t="e">
-        <v>#VALUE!</v>
+      <c r="AM12" s="16" t="str">
+        <v>nu:</v>
+      </c>
+      <c r="AN12" s="120">
+        <v>0.67096298290035938</v>
       </c>
       <c r="AO12" s="16" t="str">
         <v>nu:</v>
@@ -16677,11 +16677,11 @@
       <c r="AL13" s="120">
         <v>0.13868274334396327</v>
       </c>
-      <c r="AM13" s="16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN13" s="120" t="e">
-        <v>#VALUE!</v>
+      <c r="AM13" s="16" t="str">
+        <v>rho:</v>
+      </c>
+      <c r="AN13" s="120">
+        <v>5.6130829806780566E-2</v>
       </c>
       <c r="AO13" s="16" t="str">
         <v>rho:</v>
@@ -16784,11 +16784,11 @@
       <c r="AL14" s="120">
         <v>3.9066954511094171E-3</v>
       </c>
-      <c r="AM14" s="16" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN14" s="120" t="e">
-        <v>#VALUE!</v>
+      <c r="AM14" s="16" t="str">
+        <v>rmsError:</v>
+      </c>
+      <c r="AN14" s="120">
+        <v>4.6902770366104643E-3</v>
       </c>
       <c r="AO14" s="16" t="str">
         <v>rmsError:</v>
@@ -16891,11 +16891,11 @@
       <c r="AL15" s="121">
         <v>6.9828053731075812E-3</v>
       </c>
-      <c r="AM15" s="107" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN15" s="121" t="e">
-        <v>#VALUE!</v>
+      <c r="AM15" s="107" t="str">
+        <v>maxError:</v>
+      </c>
+      <c r="AN15" s="121">
+        <v>8.2646094389757785E-3</v>
       </c>
       <c r="AO15" s="107" t="str">
         <v>maxError:</v>
@@ -17197,49 +17197,49 @@
       <c r="X19" s="17">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="Y19" s="128" t="e">
+      <c r="Y19" s="128">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,R19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z19" s="129" t="e">
+        <v>0.41490764137412295</v>
+      </c>
+      <c r="Z19" s="129">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,S19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA19" s="129" t="e">
+        <v>0.37039609693954034</v>
+      </c>
+      <c r="AA19" s="129">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,T19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB19" s="129" t="e">
+        <v>0.34152089202476937</v>
+      </c>
+      <c r="AB19" s="129">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,U19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC19" s="129" t="e">
+        <v>0.32726460943897578</v>
+      </c>
+      <c r="AC19" s="129">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,V19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD19" s="129" t="e">
+        <v>0.32477806193013609</v>
+      </c>
+      <c r="AD19" s="129">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,W19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE19" s="120" t="str">
+        <v>0.32975475505182028</v>
+      </c>
+      <c r="AE19" s="120">
         <f>_xll.cegGetSABRInterpolatedValue($AJ9,X19)</f>
-        <v/>
-      </c>
-      <c r="AF19" s="122" t="e">
+        <v>0.33853058306795969</v>
+      </c>
+      <c r="AF19" s="122">
         <f>AN10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG19" s="123" t="e">
+        <v>5.4056346152366028E-2</v>
+      </c>
+      <c r="AG19" s="123">
         <f>AN11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH19" s="123" t="e">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AH19" s="123">
         <f>AN12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI19" s="124" t="e">
+        <v>0.67096298290035938</v>
+      </c>
+      <c r="AI19" s="124">
         <f>AN13</f>
-        <v>#VALUE!</v>
+        <v>5.6130829806780566E-2</v>
       </c>
     </row>
     <row r="20" spans="13:35" x14ac:dyDescent="0.25">
@@ -17432,7 +17432,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18374,22 +18374,23 @@
         <v>65</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="str">
+        <f>SQRT(0.2)</f>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="E16" t="e">
         <f>_xll.cegSVIModel(111,100,B4,C1:W1,C4:W4,C16:C20)</f>
-        <v>MODEL@111#20:02:30</v>
-      </c>
-      <c r="H16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="e">
         <f t="array" ref="H16:I23">_xll.cegGetSVICalibratedParameters(E16)</f>
-        <v>a:</v>
-      </c>
-      <c r="I16">
-        <v>-21.226559066407372</v>
-      </c>
-      <c r="K16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
         <f>_xll.cegGetSVIInterpolatedValue(E16,100)</f>
-        <v>5.7947523316283416</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -18399,11 +18400,11 @@
       <c r="C17">
         <v>0.5</v>
       </c>
-      <c r="H17" t="str">
-        <v>b:</v>
-      </c>
-      <c r="I17">
-        <v>85.290478715394215</v>
+      <c r="H17" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -18411,13 +18412,14 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>0.02</v>
-      </c>
-      <c r="H18" t="str">
-        <v>rho:</v>
-      </c>
-      <c r="I18">
-        <v>-0.276830518132271</v>
+        <f>SQRT(0.4)</f>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -18425,13 +18427,13 @@
         <v>67</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
-      </c>
-      <c r="H19" t="str">
-        <v>m:</v>
-      </c>
-      <c r="I19">
-        <v>0.25899559288090457</v>
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -18439,37 +18441,37 @@
         <v>68</v>
       </c>
       <c r="C20">
-        <v>0.01</v>
-      </c>
-      <c r="H20" t="str">
-        <v>sigma:</v>
-      </c>
-      <c r="I20">
-        <v>3.6690876782414485</v>
+        <v>0.5</v>
+      </c>
+      <c r="H20" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H21" t="str">
-        <v>rmsError:</v>
-      </c>
-      <c r="I21">
-        <v>8.816484602748039</v>
+      <c r="H21" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H22" t="str">
-        <v>maxError:</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+      <c r="H22" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H23" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
-        <v>#N/A</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
